--- a/Results/Emissions/RR/Annual_Emission_full.xlsx
+++ b/Results/Emissions/RR/Annual_Emission_full.xlsx
@@ -10,13 +10,15 @@
     <sheet name="Total" sheetId="1" r:id="rId1"/>
     <sheet name="Effective" sheetId="2" r:id="rId2"/>
     <sheet name="Avoided" sheetId="3" r:id="rId3"/>
+    <sheet name="Primary" sheetId="4" r:id="rId4"/>
+    <sheet name="Secondary" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
   <si>
     <t>Neodymium</t>
   </si>
@@ -4536,4 +4538,2774 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CM5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:91">
+      <c r="B1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>2050</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>2051</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>2052</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>2053</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>2054</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>2055</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>2056</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>2057</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>2058</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>2059</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>2060</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>2061</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>2062</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>2063</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>2064</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>2065</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>2066</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>2067</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>2068</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>2070</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>2071</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>2072</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>2073</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>2074</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>2075</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>2076</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>2077</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>2078</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>2079</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>2080</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>2081</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>2082</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>2083</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>2084</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>2085</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>2086</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>2087</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>2088</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>2089</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>2090</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>2091</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>2092</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>2093</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>2094</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>2095</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>2096</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>2097</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>2098</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>2099</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:91">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>46.87313132580815</v>
+      </c>
+      <c r="C2">
+        <v>66.33198577580596</v>
+      </c>
+      <c r="D2">
+        <v>64.10893634696306</v>
+      </c>
+      <c r="E2">
+        <v>60.87287215197752</v>
+      </c>
+      <c r="F2">
+        <v>97.98475951145662</v>
+      </c>
+      <c r="G2">
+        <v>70.69508014432849</v>
+      </c>
+      <c r="H2">
+        <v>125.7738237737691</v>
+      </c>
+      <c r="I2">
+        <v>119.5407851756638</v>
+      </c>
+      <c r="J2">
+        <v>112.1243136005679</v>
+      </c>
+      <c r="K2">
+        <v>101.1830910680482</v>
+      </c>
+      <c r="L2">
+        <v>209.7507741060238</v>
+      </c>
+      <c r="M2">
+        <v>142.5971931883421</v>
+      </c>
+      <c r="N2">
+        <v>278.8444038780739</v>
+      </c>
+      <c r="O2">
+        <v>300.2881696284019</v>
+      </c>
+      <c r="P2">
+        <v>321.7930373168958</v>
+      </c>
+      <c r="Q2">
+        <v>706.7233812324329</v>
+      </c>
+      <c r="R2">
+        <v>757.1527624995942</v>
+      </c>
+      <c r="S2">
+        <v>807.6955520436209</v>
+      </c>
+      <c r="T2">
+        <v>858.4250423361918</v>
+      </c>
+      <c r="U2">
+        <v>909.3110143570598</v>
+      </c>
+      <c r="V2">
+        <v>911.0107312659994</v>
+      </c>
+      <c r="W2">
+        <v>957.6871319659004</v>
+      </c>
+      <c r="X2">
+        <v>1004.487512410535</v>
+      </c>
+      <c r="Y2">
+        <v>1051.545522365984</v>
+      </c>
+      <c r="Z2">
+        <v>1098.958973554066</v>
+      </c>
+      <c r="AA2">
+        <v>494.3227050294377</v>
+      </c>
+      <c r="AB2">
+        <v>503.4307105320466</v>
+      </c>
+      <c r="AC2">
+        <v>513.4907513446126</v>
+      </c>
+      <c r="AD2">
+        <v>523.7456259766632</v>
+      </c>
+      <c r="AE2">
+        <v>534.9262201779834</v>
+      </c>
+      <c r="AF2">
+        <v>313.7036846521526</v>
+      </c>
+      <c r="AG2">
+        <v>312.7029904111594</v>
+      </c>
+      <c r="AH2">
+        <v>314.8650059504081</v>
+      </c>
+      <c r="AI2">
+        <v>320.5705474491971</v>
+      </c>
+      <c r="AJ2">
+        <v>326.7930520748316</v>
+      </c>
+      <c r="AK2">
+        <v>438.5743403953319</v>
+      </c>
+      <c r="AL2">
+        <v>457.534423434021</v>
+      </c>
+      <c r="AM2">
+        <v>482.1629064103901</v>
+      </c>
+      <c r="AN2">
+        <v>512.4562441552099</v>
+      </c>
+      <c r="AO2">
+        <v>535.5544321568262</v>
+      </c>
+      <c r="AP2">
+        <v>738.239832512705</v>
+      </c>
+      <c r="AQ2">
+        <v>758.3642412394877</v>
+      </c>
+      <c r="AR2">
+        <v>775.8552611126809</v>
+      </c>
+      <c r="AS2">
+        <v>790.5665425223889</v>
+      </c>
+      <c r="AT2">
+        <v>803.9777663736172</v>
+      </c>
+      <c r="AU2">
+        <v>856.3429456678809</v>
+      </c>
+      <c r="AV2">
+        <v>858.7515681172036</v>
+      </c>
+      <c r="AW2">
+        <v>845.3666729081538</v>
+      </c>
+      <c r="AX2">
+        <v>820.2856921359785</v>
+      </c>
+      <c r="AY2">
+        <v>808.9284827337467</v>
+      </c>
+      <c r="AZ2">
+        <v>760.1012013546062</v>
+      </c>
+      <c r="BA2">
+        <v>760.167198975211</v>
+      </c>
+      <c r="BB2">
+        <v>755.803013942249</v>
+      </c>
+      <c r="BC2">
+        <v>748.9425118581928</v>
+      </c>
+      <c r="BD2">
+        <v>749.6312594996539</v>
+      </c>
+      <c r="BE2">
+        <v>722.1055603135804</v>
+      </c>
+      <c r="BF2">
+        <v>735.8820495663955</v>
+      </c>
+      <c r="BG2">
+        <v>755.3596211521618</v>
+      </c>
+      <c r="BH2">
+        <v>780.7160770325977</v>
+      </c>
+      <c r="BI2">
+        <v>808.6001553750741</v>
+      </c>
+      <c r="BJ2">
+        <v>817.7345744675415</v>
+      </c>
+      <c r="BK2">
+        <v>849.8159413079645</v>
+      </c>
+      <c r="BL2">
+        <v>882.744930088543</v>
+      </c>
+      <c r="BM2">
+        <v>914.1668239537335</v>
+      </c>
+      <c r="BN2">
+        <v>938.1952731046777</v>
+      </c>
+      <c r="BO2">
+        <v>945.1294817272627</v>
+      </c>
+      <c r="BP2">
+        <v>960.434437902014</v>
+      </c>
+      <c r="BQ2">
+        <v>973.5511550281377</v>
+      </c>
+      <c r="BR2">
+        <v>981.826186685598</v>
+      </c>
+      <c r="BS2">
+        <v>980.8243213798556</v>
+      </c>
+      <c r="BT2">
+        <v>957.7813306283483</v>
+      </c>
+      <c r="BU2">
+        <v>944.6912143066235</v>
+      </c>
+      <c r="BV2">
+        <v>935.9489590468097</v>
+      </c>
+      <c r="BW2">
+        <v>932.3257082332793</v>
+      </c>
+      <c r="BX2">
+        <v>930.662941431757</v>
+      </c>
+      <c r="BY2">
+        <v>916.7879585596456</v>
+      </c>
+      <c r="BZ2">
+        <v>914.9133083558106</v>
+      </c>
+      <c r="CA2">
+        <v>916.7078128726454</v>
+      </c>
+      <c r="CB2">
+        <v>923.8528905788114</v>
+      </c>
+      <c r="CC2">
+        <v>937.0647806631937</v>
+      </c>
+      <c r="CD2">
+        <v>940.8259505032488</v>
+      </c>
+      <c r="CE2">
+        <v>962.7243053108689</v>
+      </c>
+      <c r="CF2">
+        <v>986.7732393863743</v>
+      </c>
+      <c r="CG2">
+        <v>1012.303574337361</v>
+      </c>
+      <c r="CH2">
+        <v>1039.471835835109</v>
+      </c>
+      <c r="CI2">
+        <v>1043.772920656205</v>
+      </c>
+      <c r="CJ2">
+        <v>1067.648533141681</v>
+      </c>
+      <c r="CK2">
+        <v>1086.742371297824</v>
+      </c>
+      <c r="CL2">
+        <v>1101.382785078716</v>
+      </c>
+      <c r="CM2">
+        <v>1113.159289365086</v>
+      </c>
+    </row>
+    <row r="3" spans="1:91">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>16.484167527155</v>
+      </c>
+      <c r="C3">
+        <v>23.38798922041591</v>
+      </c>
+      <c r="D3">
+        <v>22.57939092093104</v>
+      </c>
+      <c r="E3">
+        <v>21.42597826888872</v>
+      </c>
+      <c r="F3">
+        <v>34.62336229904264</v>
+      </c>
+      <c r="G3">
+        <v>24.89424393530531</v>
+      </c>
+      <c r="H3">
+        <v>44.50179570022927</v>
+      </c>
+      <c r="I3">
+        <v>42.25890093836069</v>
+      </c>
+      <c r="J3">
+        <v>39.60814033717257</v>
+      </c>
+      <c r="K3">
+        <v>35.69720552068932</v>
+      </c>
+      <c r="L3">
+        <v>74.38019691022757</v>
+      </c>
+      <c r="M3">
+        <v>50.4381741103193</v>
+      </c>
+      <c r="N3">
+        <v>98.97196813148068</v>
+      </c>
+      <c r="O3">
+        <v>106.6048837863941</v>
+      </c>
+      <c r="P3">
+        <v>114.2596272503051</v>
+      </c>
+      <c r="Q3">
+        <v>251.394000746216</v>
+      </c>
+      <c r="R3">
+        <v>269.3546405379693</v>
+      </c>
+      <c r="S3">
+        <v>287.3556508044288</v>
+      </c>
+      <c r="T3">
+        <v>305.4231604653604</v>
+      </c>
+      <c r="U3">
+        <v>323.5464090789041</v>
+      </c>
+      <c r="V3">
+        <v>324.1401440430615</v>
+      </c>
+      <c r="W3">
+        <v>340.76356064314</v>
+      </c>
+      <c r="X3">
+        <v>357.4311843464259</v>
+      </c>
+      <c r="Y3">
+        <v>374.1905786989596</v>
+      </c>
+      <c r="Z3">
+        <v>391.0766025783738</v>
+      </c>
+      <c r="AA3">
+        <v>175.6242012387176</v>
+      </c>
+      <c r="AB3">
+        <v>178.8583274315591</v>
+      </c>
+      <c r="AC3">
+        <v>182.4316125719358</v>
+      </c>
+      <c r="AD3">
+        <v>186.0743864960714</v>
+      </c>
+      <c r="AE3">
+        <v>190.0469217125833</v>
+      </c>
+      <c r="AF3">
+        <v>111.2068448402016</v>
+      </c>
+      <c r="AG3">
+        <v>110.8374484561872</v>
+      </c>
+      <c r="AH3">
+        <v>111.5947283736968</v>
+      </c>
+      <c r="AI3">
+        <v>113.6144193038868</v>
+      </c>
+      <c r="AJ3">
+        <v>115.8177670895816</v>
+      </c>
+      <c r="AK3">
+        <v>155.6338656615469</v>
+      </c>
+      <c r="AL3">
+        <v>162.3748792876521</v>
+      </c>
+      <c r="AM3">
+        <v>171.1351409463695</v>
+      </c>
+      <c r="AN3">
+        <v>181.9134771202302</v>
+      </c>
+      <c r="AO3">
+        <v>190.1291465542252</v>
+      </c>
+      <c r="AP3">
+        <v>262.3395704201172</v>
+      </c>
+      <c r="AQ3">
+        <v>269.497270127537</v>
+      </c>
+      <c r="AR3">
+        <v>275.7171451457949</v>
+      </c>
+      <c r="AS3">
+        <v>280.9471151620087</v>
+      </c>
+      <c r="AT3">
+        <v>285.7143332976925</v>
+      </c>
+      <c r="AU3">
+        <v>304.3616390201375</v>
+      </c>
+      <c r="AV3">
+        <v>305.2088207972164</v>
+      </c>
+      <c r="AW3">
+        <v>300.4294655282433</v>
+      </c>
+      <c r="AX3">
+        <v>291.4831878698309</v>
+      </c>
+      <c r="AY3">
+        <v>287.4262798700847</v>
+      </c>
+      <c r="AZ3">
+        <v>270.0144798917536</v>
+      </c>
+      <c r="BA3">
+        <v>270.02581271282</v>
+      </c>
+      <c r="BB3">
+        <v>268.4583314870846</v>
+      </c>
+      <c r="BC3">
+        <v>266.000847411578</v>
+      </c>
+      <c r="BD3">
+        <v>266.2329436138249</v>
+      </c>
+      <c r="BE3">
+        <v>256.4087972628536</v>
+      </c>
+      <c r="BF3">
+        <v>261.3022441006828</v>
+      </c>
+      <c r="BG3">
+        <v>268.2261692384168</v>
+      </c>
+      <c r="BH3">
+        <v>277.2440456265344</v>
+      </c>
+      <c r="BI3">
+        <v>287.1620743738445</v>
+      </c>
+      <c r="BJ3">
+        <v>290.3970567264187</v>
+      </c>
+      <c r="BK3">
+        <v>301.8095042002766</v>
+      </c>
+      <c r="BL3">
+        <v>313.5243955038559</v>
+      </c>
+      <c r="BM3">
+        <v>324.7028328690099</v>
+      </c>
+      <c r="BN3">
+        <v>333.2473367370274</v>
+      </c>
+      <c r="BO3">
+        <v>335.6993297108127</v>
+      </c>
+      <c r="BP3">
+        <v>341.1348880746116</v>
+      </c>
+      <c r="BQ3">
+        <v>345.7910810114583</v>
+      </c>
+      <c r="BR3">
+        <v>348.7225488847392</v>
+      </c>
+      <c r="BS3">
+        <v>348.3490566286325</v>
+      </c>
+      <c r="BT3">
+        <v>340.1207150729235</v>
+      </c>
+      <c r="BU3">
+        <v>335.4394906904953</v>
+      </c>
+      <c r="BV3">
+        <v>332.307135862717</v>
+      </c>
+      <c r="BW3">
+        <v>330.9983858161702</v>
+      </c>
+      <c r="BX3">
+        <v>330.3882312599555</v>
+      </c>
+      <c r="BY3">
+        <v>325.4250577265703</v>
+      </c>
+      <c r="BZ3">
+        <v>324.7381709783364</v>
+      </c>
+      <c r="CA3">
+        <v>325.3585778359816</v>
+      </c>
+      <c r="CB3">
+        <v>327.8853444268859</v>
+      </c>
+      <c r="CC3">
+        <v>332.5736043076468</v>
+      </c>
+      <c r="CD3">
+        <v>333.8920337469676</v>
+      </c>
+      <c r="CE3">
+        <v>341.6728481609548</v>
+      </c>
+      <c r="CF3">
+        <v>350.2196455550408</v>
+      </c>
+      <c r="CG3">
+        <v>359.2941864359004</v>
+      </c>
+      <c r="CH3">
+        <v>368.9524612657302</v>
+      </c>
+      <c r="CI3">
+        <v>370.4612173593997</v>
+      </c>
+      <c r="CJ3">
+        <v>378.9456604098887</v>
+      </c>
+      <c r="CK3">
+        <v>385.726538047134</v>
+      </c>
+      <c r="CL3">
+        <v>390.9207719101922</v>
+      </c>
+      <c r="CM3">
+        <v>395.094717848343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:91">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3257.482103532024</v>
+      </c>
+      <c r="C4">
+        <v>2998.024635129411</v>
+      </c>
+      <c r="D4">
+        <v>2459.950491718791</v>
+      </c>
+      <c r="E4">
+        <v>2803.30893526648</v>
+      </c>
+      <c r="F4">
+        <v>3539.18902949694</v>
+      </c>
+      <c r="G4">
+        <v>3299.526118065303</v>
+      </c>
+      <c r="H4">
+        <v>3545.5103883918</v>
+      </c>
+      <c r="I4">
+        <v>3108.575634754442</v>
+      </c>
+      <c r="J4">
+        <v>3372.195591419591</v>
+      </c>
+      <c r="K4">
+        <v>3978.80428007811</v>
+      </c>
+      <c r="L4">
+        <v>3756.87909389659</v>
+      </c>
+      <c r="M4">
+        <v>4312.307704377113</v>
+      </c>
+      <c r="N4">
+        <v>22964.79887494224</v>
+      </c>
+      <c r="O4">
+        <v>23029.58763228344</v>
+      </c>
+      <c r="P4">
+        <v>23084.16115538833</v>
+      </c>
+      <c r="Q4">
+        <v>73307.38626396484</v>
+      </c>
+      <c r="R4">
+        <v>73417.39229936399</v>
+      </c>
+      <c r="S4">
+        <v>73533.3623171903</v>
+      </c>
+      <c r="T4">
+        <v>73653.00143624152</v>
+      </c>
+      <c r="U4">
+        <v>73774.52867630482</v>
+      </c>
+      <c r="V4">
+        <v>76972.80955086605</v>
+      </c>
+      <c r="W4">
+        <v>77092.18175033806</v>
+      </c>
+      <c r="X4">
+        <v>77204.24847200939</v>
+      </c>
+      <c r="Y4">
+        <v>77315.46859843412</v>
+      </c>
+      <c r="Z4">
+        <v>77426.08465524336</v>
+      </c>
+      <c r="AA4">
+        <v>21385.16423496064</v>
+      </c>
+      <c r="AB4">
+        <v>21438.76480457853</v>
+      </c>
+      <c r="AC4">
+        <v>21489.47100577577</v>
+      </c>
+      <c r="AD4">
+        <v>21512.5214285162</v>
+      </c>
+      <c r="AE4">
+        <v>21534.65959197525</v>
+      </c>
+      <c r="AF4">
+        <v>3557.432409293121</v>
+      </c>
+      <c r="AG4">
+        <v>3261.991168248815</v>
+      </c>
+      <c r="AH4">
+        <v>3054.02092067943</v>
+      </c>
+      <c r="AI4">
+        <v>2987.563560637004</v>
+      </c>
+      <c r="AJ4">
+        <v>2891.117206328382</v>
+      </c>
+      <c r="AK4">
+        <v>11816.75718373798</v>
+      </c>
+      <c r="AL4">
+        <v>12154.83581348088</v>
+      </c>
+      <c r="AM4">
+        <v>12592.25656646341</v>
+      </c>
+      <c r="AN4">
+        <v>13132.89131582812</v>
+      </c>
+      <c r="AO4">
+        <v>13438.19374693943</v>
+      </c>
+      <c r="AP4">
+        <v>25435.98719643212</v>
+      </c>
+      <c r="AQ4">
+        <v>25477.83002959082</v>
+      </c>
+      <c r="AR4">
+        <v>25477.75166039433</v>
+      </c>
+      <c r="AS4">
+        <v>25437.07791547502</v>
+      </c>
+      <c r="AT4">
+        <v>25385.83575297485</v>
+      </c>
+      <c r="AU4">
+        <v>28773.68766508509</v>
+      </c>
+      <c r="AV4">
+        <v>28549.32058911866</v>
+      </c>
+      <c r="AW4">
+        <v>28100.99289724601</v>
+      </c>
+      <c r="AX4">
+        <v>27509.68189371385</v>
+      </c>
+      <c r="AY4">
+        <v>27175.06927902998</v>
+      </c>
+      <c r="AZ4">
+        <v>24863.36968140983</v>
+      </c>
+      <c r="BA4">
+        <v>24760.26051405747</v>
+      </c>
+      <c r="BB4">
+        <v>24675.30211405103</v>
+      </c>
+      <c r="BC4">
+        <v>24723.62570020244</v>
+      </c>
+      <c r="BD4">
+        <v>24719.97472388836</v>
+      </c>
+      <c r="BE4">
+        <v>23466.05953331147</v>
+      </c>
+      <c r="BF4">
+        <v>23417.02746669274</v>
+      </c>
+      <c r="BG4">
+        <v>23620.80161630012</v>
+      </c>
+      <c r="BH4">
+        <v>23968.66625957941</v>
+      </c>
+      <c r="BI4">
+        <v>24356.52558134749</v>
+      </c>
+      <c r="BJ4">
+        <v>24564.72169428057</v>
+      </c>
+      <c r="BK4">
+        <v>24955.60888469941</v>
+      </c>
+      <c r="BL4">
+        <v>25268.17144268545</v>
+      </c>
+      <c r="BM4">
+        <v>25476.41435803022</v>
+      </c>
+      <c r="BN4">
+        <v>25556.70565103617</v>
+      </c>
+      <c r="BO4">
+        <v>25561.34696380412</v>
+      </c>
+      <c r="BP4">
+        <v>25523.54006417625</v>
+      </c>
+      <c r="BQ4">
+        <v>25453.87364720822</v>
+      </c>
+      <c r="BR4">
+        <v>25316.38506243547</v>
+      </c>
+      <c r="BS4">
+        <v>25057.56708145816</v>
+      </c>
+      <c r="BT4">
+        <v>24383.52858230126</v>
+      </c>
+      <c r="BU4">
+        <v>24012.50782118351</v>
+      </c>
+      <c r="BV4">
+        <v>23883.53314638881</v>
+      </c>
+      <c r="BW4">
+        <v>24003.13388887114</v>
+      </c>
+      <c r="BX4">
+        <v>24026.7804790275</v>
+      </c>
+      <c r="BY4">
+        <v>23470.777918617</v>
+      </c>
+      <c r="BZ4">
+        <v>23426.74280979298</v>
+      </c>
+      <c r="CA4">
+        <v>23362.67747285085</v>
+      </c>
+      <c r="CB4">
+        <v>23268.44339838231</v>
+      </c>
+      <c r="CC4">
+        <v>23088.63993495865</v>
+      </c>
+      <c r="CD4">
+        <v>22183.80291165825</v>
+      </c>
+      <c r="CE4">
+        <v>22478.02937243</v>
+      </c>
+      <c r="CF4">
+        <v>22801.58407900847</v>
+      </c>
+      <c r="CG4">
+        <v>23118.66037571767</v>
+      </c>
+      <c r="CH4">
+        <v>23401.47743304551</v>
+      </c>
+      <c r="CI4">
+        <v>22070.80123749497</v>
+      </c>
+      <c r="CJ4">
+        <v>22193.85765349282</v>
+      </c>
+      <c r="CK4">
+        <v>22228.59134999937</v>
+      </c>
+      <c r="CL4">
+        <v>22197.65939805936</v>
+      </c>
+      <c r="CM4">
+        <v>22123.30806095577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:91">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3597.461903632588</v>
+      </c>
+      <c r="C5">
+        <v>2631.624974354841</v>
+      </c>
+      <c r="D5">
+        <v>2453.466419891566</v>
+      </c>
+      <c r="E5">
+        <v>2352.522838682788</v>
+      </c>
+      <c r="F5">
+        <v>2716.197299382431</v>
+      </c>
+      <c r="G5">
+        <v>3503.95476217782</v>
+      </c>
+      <c r="H5">
+        <v>3835.058943603923</v>
+      </c>
+      <c r="I5">
+        <v>3130.261370369066</v>
+      </c>
+      <c r="J5">
+        <v>2950.600693465025</v>
+      </c>
+      <c r="K5">
+        <v>3267.464988040925</v>
+      </c>
+      <c r="L5">
+        <v>3288.642405825366</v>
+      </c>
+      <c r="M5">
+        <v>4880.728497327035</v>
+      </c>
+      <c r="N5">
+        <v>36325.21780966887</v>
+      </c>
+      <c r="O5">
+        <v>36325.02353476663</v>
+      </c>
+      <c r="P5">
+        <v>36323.83105542551</v>
+      </c>
+      <c r="Q5">
+        <v>121199.3303696417</v>
+      </c>
+      <c r="R5">
+        <v>121194.418281039</v>
+      </c>
+      <c r="S5">
+        <v>121186.0838785245</v>
+      </c>
+      <c r="T5">
+        <v>121172.6891140995</v>
+      </c>
+      <c r="U5">
+        <v>121151.8434820733</v>
+      </c>
+      <c r="V5">
+        <v>126981.3558389499</v>
+      </c>
+      <c r="W5">
+        <v>126934.1890774948</v>
+      </c>
+      <c r="X5">
+        <v>126865.3518930872</v>
+      </c>
+      <c r="Y5">
+        <v>126766.9605779477</v>
+      </c>
+      <c r="Z5">
+        <v>126629.1964388918</v>
+      </c>
+      <c r="AA5">
+        <v>32618.68700122281</v>
+      </c>
+      <c r="AB5">
+        <v>32364.12497686315</v>
+      </c>
+      <c r="AC5">
+        <v>32027.51568252803</v>
+      </c>
+      <c r="AD5">
+        <v>31590.13005197847</v>
+      </c>
+      <c r="AE5">
+        <v>31031.50162670948</v>
+      </c>
+      <c r="AF5">
+        <v>-1077.952316633352</v>
+      </c>
+      <c r="AG5">
+        <v>-2361.39541497595</v>
+      </c>
+      <c r="AH5">
+        <v>-3913.24320974085</v>
+      </c>
+      <c r="AI5">
+        <v>-5196.140615502857</v>
+      </c>
+      <c r="AJ5">
+        <v>-6632.459912310241</v>
+      </c>
+      <c r="AK5">
+        <v>4442.821859200028</v>
+      </c>
+      <c r="AL5">
+        <v>2663.319412966725</v>
+      </c>
+      <c r="AM5">
+        <v>774.1572916818056</v>
+      </c>
+      <c r="AN5">
+        <v>-1156.769790352651</v>
+      </c>
+      <c r="AO5">
+        <v>-3044.359656682164</v>
+      </c>
+      <c r="AP5">
+        <v>13300.14942363372</v>
+      </c>
+      <c r="AQ5">
+        <v>11791.19521764254</v>
+      </c>
+      <c r="AR5">
+        <v>10611.15177000982</v>
+      </c>
+      <c r="AS5">
+        <v>9830.588342827827</v>
+      </c>
+      <c r="AT5">
+        <v>9491.361590153805</v>
+      </c>
+      <c r="AU5">
+        <v>14793.16620464541</v>
+      </c>
+      <c r="AV5">
+        <v>15324.31792977388</v>
+      </c>
+      <c r="AW5">
+        <v>16217.21533584761</v>
+      </c>
+      <c r="AX5">
+        <v>17386.7129985133</v>
+      </c>
+      <c r="AY5">
+        <v>18729.9327779479</v>
+      </c>
+      <c r="AZ5">
+        <v>17037.8128670253</v>
+      </c>
+      <c r="BA5">
+        <v>18387.83561095093</v>
+      </c>
+      <c r="BB5">
+        <v>19574.67895832873</v>
+      </c>
+      <c r="BC5">
+        <v>20503.43909026868</v>
+      </c>
+      <c r="BD5">
+        <v>21101.15345800276</v>
+      </c>
+      <c r="BE5">
+        <v>19589.1465343048</v>
+      </c>
+      <c r="BF5">
+        <v>19420.29242386936</v>
+      </c>
+      <c r="BG5">
+        <v>18875.11248235799</v>
+      </c>
+      <c r="BH5">
+        <v>17991.43663483782</v>
+      </c>
+      <c r="BI5">
+        <v>16824.02921800642</v>
+      </c>
+      <c r="BJ5">
+        <v>15142.78492178917</v>
+      </c>
+      <c r="BK5">
+        <v>13611.15205351644</v>
+      </c>
+      <c r="BL5">
+        <v>12008.16800039933</v>
+      </c>
+      <c r="BM5">
+        <v>10408.62857668212</v>
+      </c>
+      <c r="BN5">
+        <v>8883.915715712053</v>
+      </c>
+      <c r="BO5">
+        <v>7515.851980039589</v>
+      </c>
+      <c r="BP5">
+        <v>6322.9933295933</v>
+      </c>
+      <c r="BQ5">
+        <v>5362.917796869011</v>
+      </c>
+      <c r="BR5">
+        <v>4660.191535970474</v>
+      </c>
+      <c r="BS5">
+        <v>4222.701259547973</v>
+      </c>
+      <c r="BT5">
+        <v>3531.986804723628</v>
+      </c>
+      <c r="BU5">
+        <v>3581.723003658743</v>
+      </c>
+      <c r="BV5">
+        <v>3823.09671408828</v>
+      </c>
+      <c r="BW5">
+        <v>4205.837295685022</v>
+      </c>
+      <c r="BX5">
+        <v>4672.821444736036</v>
+      </c>
+      <c r="BY5">
+        <v>4312.710521278362</v>
+      </c>
+      <c r="BZ5">
+        <v>4771.585711061673</v>
+      </c>
+      <c r="CA5">
+        <v>5145.260501735159</v>
+      </c>
+      <c r="CB5">
+        <v>5390.034331861903</v>
+      </c>
+      <c r="CC5">
+        <v>5473.195893720959</v>
+      </c>
+      <c r="CD5">
+        <v>3937.235751216115</v>
+      </c>
+      <c r="CE5">
+        <v>3650.281002529223</v>
+      </c>
+      <c r="CF5">
+        <v>3180.760670228381</v>
+      </c>
+      <c r="CG5">
+        <v>2546.149067368103</v>
+      </c>
+      <c r="CH5">
+        <v>1773.371180906292</v>
+      </c>
+      <c r="CI5">
+        <v>-1352.438270311442</v>
+      </c>
+      <c r="CJ5">
+        <v>-2295.383816473168</v>
+      </c>
+      <c r="CK5">
+        <v>-3264.403893070374</v>
+      </c>
+      <c r="CL5">
+        <v>-4220.427367938166</v>
+      </c>
+      <c r="CM5">
+        <v>-5127.571644620081</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CM5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:91">
+      <c r="B1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>2050</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>2051</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>2052</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>2053</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>2054</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>2055</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>2056</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>2057</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>2058</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>2059</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>2060</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>2061</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>2062</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>2063</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>2064</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>2065</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>2066</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>2067</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>2068</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>2070</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>2071</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>2072</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>2073</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>2074</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>2075</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>2076</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>2077</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>2078</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>2079</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>2080</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>2081</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>2082</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>2083</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>2084</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>2085</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>2086</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>2087</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>2088</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>2089</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>2090</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>2091</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>2092</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>2093</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>2094</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>2095</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>2096</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>2097</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>2098</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>2099</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:91">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.332335427828166E-09</v>
+      </c>
+      <c r="C2">
+        <v>3.284513453445333E-08</v>
+      </c>
+      <c r="D2">
+        <v>2.644910172549428E-07</v>
+      </c>
+      <c r="E2">
+        <v>1.794652138468477E-06</v>
+      </c>
+      <c r="F2">
+        <v>1.051714456543677E-05</v>
+      </c>
+      <c r="G2">
+        <v>5.430354439820835E-05</v>
+      </c>
+      <c r="H2">
+        <v>0.0002510969149300927</v>
+      </c>
+      <c r="I2">
+        <v>0.001053729400572914</v>
+      </c>
+      <c r="J2">
+        <v>0.0040566162729478</v>
+      </c>
+      <c r="K2">
+        <v>0.01444093715299347</v>
+      </c>
+      <c r="L2">
+        <v>0.04770528801053836</v>
+      </c>
+      <c r="M2">
+        <v>0.1454508344049979</v>
+      </c>
+      <c r="N2">
+        <v>0.3992240019498849</v>
+      </c>
+      <c r="O2">
+        <v>0.9272272506193673</v>
+      </c>
+      <c r="P2">
+        <v>1.632982737601576</v>
+      </c>
+      <c r="Q2">
+        <v>1.968459485918082</v>
+      </c>
+      <c r="R2">
+        <v>1.811061033620049</v>
+      </c>
+      <c r="S2">
+        <v>1.963441556741752</v>
+      </c>
+      <c r="T2">
+        <v>2.668207038672727</v>
+      </c>
+      <c r="U2">
+        <v>3.806919732329687</v>
+      </c>
+      <c r="V2">
+        <v>5.774872002423439</v>
+      </c>
+      <c r="W2">
+        <v>8.502305125175806</v>
+      </c>
+      <c r="X2">
+        <v>11.44047825332877</v>
+      </c>
+      <c r="Y2">
+        <v>14.95850057249875</v>
+      </c>
+      <c r="Z2">
+        <v>19.27725379900278</v>
+      </c>
+      <c r="AA2">
+        <v>22.61028039845805</v>
+      </c>
+      <c r="AB2">
+        <v>26.57418869831352</v>
+      </c>
+      <c r="AC2">
+        <v>32.8327631892048</v>
+      </c>
+      <c r="AD2">
+        <v>38.5207331130864</v>
+      </c>
+      <c r="AE2">
+        <v>45.75818959797583</v>
+      </c>
+      <c r="AF2">
+        <v>50.08091196076867</v>
+      </c>
+      <c r="AG2">
+        <v>53.36604989645957</v>
+      </c>
+      <c r="AH2">
+        <v>65.29455526927644</v>
+      </c>
+      <c r="AI2">
+        <v>85.33041719631723</v>
+      </c>
+      <c r="AJ2">
+        <v>104.3604998108548</v>
+      </c>
+      <c r="AK2">
+        <v>134.5071519351511</v>
+      </c>
+      <c r="AL2">
+        <v>177.812488230885</v>
+      </c>
+      <c r="AM2">
+        <v>239.0398127232707</v>
+      </c>
+      <c r="AN2">
+        <v>319.1247354698123</v>
+      </c>
+      <c r="AO2">
+        <v>375.5176824554196</v>
+      </c>
+      <c r="AP2">
+        <v>405.7974205361025</v>
+      </c>
+      <c r="AQ2">
+        <v>431.6911476880499</v>
+      </c>
+      <c r="AR2">
+        <v>453.0100959888271</v>
+      </c>
+      <c r="AS2">
+        <v>470.1389696148755</v>
+      </c>
+      <c r="AT2">
+        <v>488.6166754014444</v>
+      </c>
+      <c r="AU2">
+        <v>501.6250672091812</v>
+      </c>
+      <c r="AV2">
+        <v>488.6623044865632</v>
+      </c>
+      <c r="AW2">
+        <v>426.4983517313691</v>
+      </c>
+      <c r="AX2">
+        <v>327.9456518090683</v>
+      </c>
+      <c r="AY2">
+        <v>278.2609865294676</v>
+      </c>
+      <c r="AZ2">
+        <v>277.3301912577445</v>
+      </c>
+      <c r="BA2">
+        <v>271.7394878603168</v>
+      </c>
+      <c r="BB2">
+        <v>248.7557850608731</v>
+      </c>
+      <c r="BC2">
+        <v>213.752155725846</v>
+      </c>
+      <c r="BD2">
+        <v>200.1720262167446</v>
+      </c>
+      <c r="BE2">
+        <v>212.7060867623162</v>
+      </c>
+      <c r="BF2">
+        <v>237.5081339003266</v>
+      </c>
+      <c r="BG2">
+        <v>276.8145522922811</v>
+      </c>
+      <c r="BH2">
+        <v>331.7730090646254</v>
+      </c>
+      <c r="BI2">
+        <v>391.7378793953642</v>
+      </c>
+      <c r="BJ2">
+        <v>456.0876050201678</v>
+      </c>
+      <c r="BK2">
+        <v>528.0065222928495</v>
+      </c>
+      <c r="BL2">
+        <v>602.1783861904313</v>
+      </c>
+      <c r="BM2">
+        <v>671.5383563598527</v>
+      </c>
+      <c r="BN2">
+        <v>716.8314386778089</v>
+      </c>
+      <c r="BO2">
+        <v>742.1714696581945</v>
+      </c>
+      <c r="BP2">
+        <v>763.0942655218319</v>
+      </c>
+      <c r="BQ2">
+        <v>779.616661650894</v>
+      </c>
+      <c r="BR2">
+        <v>782.9537062903604</v>
+      </c>
+      <c r="BS2">
+        <v>758.0301375222275</v>
+      </c>
+      <c r="BT2">
+        <v>705.2173226494028</v>
+      </c>
+      <c r="BU2">
+        <v>646.0779782008548</v>
+      </c>
+      <c r="BV2">
+        <v>604.0421616211124</v>
+      </c>
+      <c r="BW2">
+        <v>581.0812206125778</v>
+      </c>
+      <c r="BX2">
+        <v>565.7937478975057</v>
+      </c>
+      <c r="BY2">
+        <v>549.1877535440576</v>
+      </c>
+      <c r="BZ2">
+        <v>533.6029675975186</v>
+      </c>
+      <c r="CA2">
+        <v>529.408786273638</v>
+      </c>
+      <c r="CB2">
+        <v>541.8022031721592</v>
+      </c>
+      <c r="CC2">
+        <v>572.825775327632</v>
+      </c>
+      <c r="CD2">
+        <v>619.5648791578762</v>
+      </c>
+      <c r="CE2">
+        <v>676.1168233422407</v>
+      </c>
+      <c r="CF2">
+        <v>737.6860828488173</v>
+      </c>
+      <c r="CG2">
+        <v>802.2606474036814</v>
+      </c>
+      <c r="CH2">
+        <v>870.7660890605769</v>
+      </c>
+      <c r="CI2">
+        <v>937.9710179781114</v>
+      </c>
+      <c r="CJ2">
+        <v>994.5321057073841</v>
+      </c>
+      <c r="CK2">
+        <v>1034.535216325724</v>
+      </c>
+      <c r="CL2">
+        <v>1059.577337460808</v>
+      </c>
+      <c r="CM2">
+        <v>1075.5352953458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:91">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3.51259637456597E-10</v>
+      </c>
+      <c r="C3">
+        <v>3.46218749542405E-09</v>
+      </c>
+      <c r="D3">
+        <v>2.787985208681353E-08</v>
+      </c>
+      <c r="E3">
+        <v>1.891732909762919E-07</v>
+      </c>
+      <c r="F3">
+        <v>1.108606401469509E-06</v>
+      </c>
+      <c r="G3">
+        <v>5.724106630632527E-06</v>
+      </c>
+      <c r="H3">
+        <v>2.646798715647254E-05</v>
+      </c>
+      <c r="I3">
+        <v>0.0001110730342844962</v>
+      </c>
+      <c r="J3">
+        <v>0.0004276056814199116</v>
+      </c>
+      <c r="K3">
+        <v>0.001522211211552607</v>
+      </c>
+      <c r="L3">
+        <v>0.005028588068118191</v>
+      </c>
+      <c r="M3">
+        <v>0.0153318921421297</v>
+      </c>
+      <c r="N3">
+        <v>0.04208198160900129</v>
+      </c>
+      <c r="O3">
+        <v>0.09773851250764029</v>
+      </c>
+      <c r="P3">
+        <v>0.1721318086986977</v>
+      </c>
+      <c r="Q3">
+        <v>0.2074942275010495</v>
+      </c>
+      <c r="R3">
+        <v>0.190902943553842</v>
+      </c>
+      <c r="S3">
+        <v>0.2069652903572851</v>
+      </c>
+      <c r="T3">
+        <v>0.2812542306625356</v>
+      </c>
+      <c r="U3">
+        <v>0.4012853069464307</v>
+      </c>
+      <c r="V3">
+        <v>0.6087260691075033</v>
+      </c>
+      <c r="W3">
+        <v>0.896223288590449</v>
+      </c>
+      <c r="X3">
+        <v>1.205934495679936</v>
+      </c>
+      <c r="Y3">
+        <v>1.57676728582353</v>
+      </c>
+      <c r="Z3">
+        <v>2.032004678775599</v>
+      </c>
+      <c r="AA3">
+        <v>2.383337172251771</v>
+      </c>
+      <c r="AB3">
+        <v>2.801170557417889</v>
+      </c>
+      <c r="AC3">
+        <v>3.460883438752396</v>
+      </c>
+      <c r="AD3">
+        <v>4.060449207744876</v>
+      </c>
+      <c r="AE3">
+        <v>4.823345499564768</v>
+      </c>
+      <c r="AF3">
+        <v>5.279001276981433</v>
+      </c>
+      <c r="AG3">
+        <v>5.625285852852524</v>
+      </c>
+      <c r="AH3">
+        <v>6.882663017727413</v>
+      </c>
+      <c r="AI3">
+        <v>8.994632160404512</v>
+      </c>
+      <c r="AJ3">
+        <v>11.00058266110431</v>
+      </c>
+      <c r="AK3">
+        <v>14.17832461567458</v>
+      </c>
+      <c r="AL3">
+        <v>18.74311620302372</v>
+      </c>
+      <c r="AM3">
+        <v>25.19705467033153</v>
+      </c>
+      <c r="AN3">
+        <v>33.63876215715069</v>
+      </c>
+      <c r="AO3">
+        <v>39.58311156083111</v>
+      </c>
+      <c r="AP3">
+        <v>42.77488203257904</v>
+      </c>
+      <c r="AQ3">
+        <v>45.50432551411984</v>
+      </c>
+      <c r="AR3">
+        <v>47.75154408298026</v>
+      </c>
+      <c r="AS3">
+        <v>49.5570891939798</v>
+      </c>
+      <c r="AT3">
+        <v>51.50481395824517</v>
+      </c>
+      <c r="AU3">
+        <v>52.87602135595215</v>
+      </c>
+      <c r="AV3">
+        <v>51.5096236949129</v>
+      </c>
+      <c r="AW3">
+        <v>44.95695575959348</v>
+      </c>
+      <c r="AX3">
+        <v>34.56857007789216</v>
+      </c>
+      <c r="AY3">
+        <v>29.33133694478008</v>
+      </c>
+      <c r="AZ3">
+        <v>29.23322232913802</v>
+      </c>
+      <c r="BA3">
+        <v>28.64390937099212</v>
+      </c>
+      <c r="BB3">
+        <v>26.22120994964229</v>
+      </c>
+      <c r="BC3">
+        <v>22.53149670912972</v>
+      </c>
+      <c r="BD3">
+        <v>21.10002275601406</v>
+      </c>
+      <c r="BE3">
+        <v>22.42123115728413</v>
+      </c>
+      <c r="BF3">
+        <v>25.03560125134064</v>
+      </c>
+      <c r="BG3">
+        <v>29.17886911050504</v>
+      </c>
+      <c r="BH3">
+        <v>34.97200969287715</v>
+      </c>
+      <c r="BI3">
+        <v>41.29287356408565</v>
+      </c>
+      <c r="BJ3">
+        <v>48.07594261068871</v>
+      </c>
+      <c r="BK3">
+        <v>55.65687596947058</v>
+      </c>
+      <c r="BL3">
+        <v>63.47529118799044</v>
+      </c>
+      <c r="BM3">
+        <v>70.78648734557237</v>
+      </c>
+      <c r="BN3">
+        <v>75.56080614356505</v>
+      </c>
+      <c r="BO3">
+        <v>78.2318848173918</v>
+      </c>
+      <c r="BP3">
+        <v>80.43734517659385</v>
+      </c>
+      <c r="BQ3">
+        <v>82.17896182951023</v>
+      </c>
+      <c r="BR3">
+        <v>82.53071786236534</v>
+      </c>
+      <c r="BS3">
+        <v>79.90353824037732</v>
+      </c>
+      <c r="BT3">
+        <v>74.3365685858905</v>
+      </c>
+      <c r="BU3">
+        <v>68.10272294209925</v>
+      </c>
+      <c r="BV3">
+        <v>63.67175072703157</v>
+      </c>
+      <c r="BW3">
+        <v>61.25145061349328</v>
+      </c>
+      <c r="BX3">
+        <v>59.64000655576719</v>
+      </c>
+      <c r="BY3">
+        <v>57.88957786017814</v>
+      </c>
+      <c r="BZ3">
+        <v>56.24679417888832</v>
+      </c>
+      <c r="CA3">
+        <v>55.80468784140786</v>
+      </c>
+      <c r="CB3">
+        <v>57.11107107350051</v>
+      </c>
+      <c r="CC3">
+        <v>60.38124868435471</v>
+      </c>
+      <c r="CD3">
+        <v>65.30799181151882</v>
+      </c>
+      <c r="CE3">
+        <v>71.26910102212793</v>
+      </c>
+      <c r="CF3">
+        <v>77.75908267047789</v>
+      </c>
+      <c r="CG3">
+        <v>84.56585186455101</v>
+      </c>
+      <c r="CH3">
+        <v>91.78697264346619</v>
+      </c>
+      <c r="CI3">
+        <v>98.87100709261971</v>
+      </c>
+      <c r="CJ3">
+        <v>104.8330801192489</v>
+      </c>
+      <c r="CK3">
+        <v>109.0497859213092</v>
+      </c>
+      <c r="CL3">
+        <v>111.6894620828374</v>
+      </c>
+      <c r="CM3">
+        <v>113.371581612108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:91">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.0409654194055099</v>
+      </c>
+      <c r="C4">
+        <v>0.07467138389049184</v>
+      </c>
+      <c r="D4">
+        <v>0.1317441389940772</v>
+      </c>
+      <c r="E4">
+        <v>0.227086828224676</v>
+      </c>
+      <c r="F4">
+        <v>0.3840633778402026</v>
+      </c>
+      <c r="G4">
+        <v>0.6381597215829768</v>
+      </c>
+      <c r="H4">
+        <v>1.044022808830307</v>
+      </c>
+      <c r="I4">
+        <v>1.693452147128854</v>
+      </c>
+      <c r="J4">
+        <v>2.76569976439129</v>
+      </c>
+      <c r="K4">
+        <v>4.663687837863745</v>
+      </c>
+      <c r="L4">
+        <v>8.339435143245261</v>
+      </c>
+      <c r="M4">
+        <v>15.8257467965693</v>
+      </c>
+      <c r="N4">
+        <v>29.87370984664298</v>
+      </c>
+      <c r="O4">
+        <v>48.68456791449007</v>
+      </c>
+      <c r="P4">
+        <v>61.78200146126555</v>
+      </c>
+      <c r="Q4">
+        <v>70.36928993078766</v>
+      </c>
+      <c r="R4">
+        <v>82.71410441153361</v>
+      </c>
+      <c r="S4">
+        <v>100.5589624539252</v>
+      </c>
+      <c r="T4">
+        <v>123.1218273172048</v>
+      </c>
+      <c r="U4">
+        <v>149.6012067136013</v>
+      </c>
+      <c r="V4">
+        <v>182.715571673906</v>
+      </c>
+      <c r="W4">
+        <v>221.9505481401798</v>
+      </c>
+      <c r="X4">
+        <v>262.2800738897598</v>
+      </c>
+      <c r="Y4">
+        <v>310.5623065819463</v>
+      </c>
+      <c r="Z4">
+        <v>370.0019594474784</v>
+      </c>
+      <c r="AA4">
+        <v>440.2289038380159</v>
+      </c>
+      <c r="AB4">
+        <v>539.2624411432164</v>
+      </c>
+      <c r="AC4">
+        <v>661.6140895397095</v>
+      </c>
+      <c r="AD4">
+        <v>793.2617392819037</v>
+      </c>
+      <c r="AE4">
+        <v>962.2156325879487</v>
+      </c>
+      <c r="AF4">
+        <v>1187.719868211872</v>
+      </c>
+      <c r="AG4">
+        <v>1483.405720653591</v>
+      </c>
+      <c r="AH4">
+        <v>1856.349536464411</v>
+      </c>
+      <c r="AI4">
+        <v>2309.849481088882</v>
+      </c>
+      <c r="AJ4">
+        <v>2885.725228264588</v>
+      </c>
+      <c r="AK4">
+        <v>3598.199973043989</v>
+      </c>
+      <c r="AL4">
+        <v>4386.076138765387</v>
+      </c>
+      <c r="AM4">
+        <v>5293.506947955423</v>
+      </c>
+      <c r="AN4">
+        <v>6302.65797899245</v>
+      </c>
+      <c r="AO4">
+        <v>7121.099544225438</v>
+      </c>
+      <c r="AP4">
+        <v>7719.674735977062</v>
+      </c>
+      <c r="AQ4">
+        <v>8216.062401230005</v>
+      </c>
+      <c r="AR4">
+        <v>8585.729549633259</v>
+      </c>
+      <c r="AS4">
+        <v>8809.122347816585</v>
+      </c>
+      <c r="AT4">
+        <v>8898.573205959519</v>
+      </c>
+      <c r="AU4">
+        <v>8823.380568179193</v>
+      </c>
+      <c r="AV4">
+        <v>8511.001234783434</v>
+      </c>
+      <c r="AW4">
+        <v>7895.586157265278</v>
+      </c>
+      <c r="AX4">
+        <v>7067.584490194158</v>
+      </c>
+      <c r="AY4">
+        <v>6405.817415596793</v>
+      </c>
+      <c r="AZ4">
+        <v>5931.617710443044</v>
+      </c>
+      <c r="BA4">
+        <v>5463.87257795417</v>
+      </c>
+      <c r="BB4">
+        <v>5004.275490185715</v>
+      </c>
+      <c r="BC4">
+        <v>4606.148142702916</v>
+      </c>
+      <c r="BD4">
+        <v>4384.284412621384</v>
+      </c>
+      <c r="BE4">
+        <v>4366.521329279988</v>
+      </c>
+      <c r="BF4">
+        <v>4530.284302072683</v>
+      </c>
+      <c r="BG4">
+        <v>4895.698753346606</v>
+      </c>
+      <c r="BH4">
+        <v>5453.098783281269</v>
+      </c>
+      <c r="BI4">
+        <v>6124.697131467289</v>
+      </c>
+      <c r="BJ4">
+        <v>6873.395932919175</v>
+      </c>
+      <c r="BK4">
+        <v>7667.785371047373</v>
+      </c>
+      <c r="BL4">
+        <v>8433.949644655395</v>
+      </c>
+      <c r="BM4">
+        <v>9125.140935372165</v>
+      </c>
+      <c r="BN4">
+        <v>9685.485072773416</v>
+      </c>
+      <c r="BO4">
+        <v>10126.78126876256</v>
+      </c>
+      <c r="BP4">
+        <v>10486.86293520517</v>
+      </c>
+      <c r="BQ4">
+        <v>10753.06860299989</v>
+      </c>
+      <c r="BR4">
+        <v>10885.69002271975</v>
+      </c>
+      <c r="BS4">
+        <v>10831.41309349318</v>
+      </c>
+      <c r="BT4">
+        <v>10601.77337503545</v>
+      </c>
+      <c r="BU4">
+        <v>10294.95343254317</v>
+      </c>
+      <c r="BV4">
+        <v>10019.31758855737</v>
+      </c>
+      <c r="BW4">
+        <v>9794.647364127119</v>
+      </c>
+      <c r="BX4">
+        <v>9586.294200498105</v>
+      </c>
+      <c r="BY4">
+        <v>9378.661488307773</v>
+      </c>
+      <c r="BZ4">
+        <v>9194.60086227059</v>
+      </c>
+      <c r="CA4">
+        <v>9074.994036428299</v>
+      </c>
+      <c r="CB4">
+        <v>9051.484300265431</v>
+      </c>
+      <c r="CC4">
+        <v>9153.601734241014</v>
+      </c>
+      <c r="CD4">
+        <v>9390.357039361192</v>
+      </c>
+      <c r="CE4">
+        <v>9740.390440035548</v>
+      </c>
+      <c r="CF4">
+        <v>10168.31014519059</v>
+      </c>
+      <c r="CG4">
+        <v>10643.4068381721</v>
+      </c>
+      <c r="CH4">
+        <v>11140.89559390164</v>
+      </c>
+      <c r="CI4">
+        <v>11623.1026077266</v>
+      </c>
+      <c r="CJ4">
+        <v>12054.22449826751</v>
+      </c>
+      <c r="CK4">
+        <v>12418.40111430494</v>
+      </c>
+      <c r="CL4">
+        <v>12720.64490961678</v>
+      </c>
+      <c r="CM4">
+        <v>12970.88355909845</v>
+      </c>
+    </row>
+    <row r="5" spans="1:91">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.1112041473722619</v>
+      </c>
+      <c r="C5">
+        <v>0.2015500986395292</v>
+      </c>
+      <c r="D5">
+        <v>0.3534091688329751</v>
+      </c>
+      <c r="E5">
+        <v>0.6052220365555724</v>
+      </c>
+      <c r="F5">
+        <v>1.016568172675718</v>
+      </c>
+      <c r="G5">
+        <v>1.675009143478017</v>
+      </c>
+      <c r="H5">
+        <v>2.703192688889803</v>
+      </c>
+      <c r="I5">
+        <v>4.266283303888239</v>
+      </c>
+      <c r="J5">
+        <v>6.579907531999655</v>
+      </c>
+      <c r="K5">
+        <v>9.917822309336001</v>
+      </c>
+      <c r="L5">
+        <v>14.61735917809014</v>
+      </c>
+      <c r="M5">
+        <v>21.08109592796427</v>
+      </c>
+      <c r="N5">
+        <v>29.7737898465222</v>
+      </c>
+      <c r="O5">
+        <v>41.21369219267226</v>
+      </c>
+      <c r="P5">
+        <v>55.9652127487047</v>
+      </c>
+      <c r="Q5">
+        <v>74.65344796495739</v>
+      </c>
+      <c r="R5">
+        <v>97.99817244445609</v>
+      </c>
+      <c r="S5">
+        <v>126.8753746165793</v>
+      </c>
+      <c r="T5">
+        <v>162.4629572388712</v>
+      </c>
+      <c r="U5">
+        <v>206.4682451660732</v>
+      </c>
+      <c r="V5">
+        <v>261.4086493355719</v>
+      </c>
+      <c r="W5">
+        <v>330.9393545520446</v>
+      </c>
+      <c r="X5">
+        <v>420.229757296318</v>
+      </c>
+      <c r="Y5">
+        <v>536.3907612501824</v>
+      </c>
+      <c r="Z5">
+        <v>688.9386573421016</v>
+      </c>
+      <c r="AA5">
+        <v>890.2574717796711</v>
+      </c>
+      <c r="AB5">
+        <v>1155.991529713236</v>
+      </c>
+      <c r="AC5">
+        <v>1505.242133349648</v>
+      </c>
+      <c r="AD5">
+        <v>1960.366294952202</v>
+      </c>
+      <c r="AE5">
+        <v>2546.227799650404</v>
+      </c>
+      <c r="AF5">
+        <v>3288.791850053646</v>
+      </c>
+      <c r="AG5">
+        <v>4212.97344234532</v>
+      </c>
+      <c r="AH5">
+        <v>5339.711130146046</v>
+      </c>
+      <c r="AI5">
+        <v>6682.331067728966</v>
+      </c>
+      <c r="AJ5">
+        <v>8242.434544808417</v>
+      </c>
+      <c r="AK5">
+        <v>10005.73720546127</v>
+      </c>
+      <c r="AL5">
+        <v>11938.4929331833</v>
+      </c>
+      <c r="AM5">
+        <v>13985.33075576627</v>
+      </c>
+      <c r="AN5">
+        <v>16069.42750322161</v>
+      </c>
+      <c r="AO5">
+        <v>18095.80192119162</v>
+      </c>
+      <c r="AP5">
+        <v>19958.08617511064</v>
+      </c>
+      <c r="AQ5">
+        <v>21548.42620011771</v>
+      </c>
+      <c r="AR5">
+        <v>22769.32810118124</v>
+      </c>
+      <c r="AS5">
+        <v>23545.56728920959</v>
+      </c>
+      <c r="AT5">
+        <v>23833.97212725364</v>
+      </c>
+      <c r="AU5">
+        <v>23629.20682024872</v>
+      </c>
+      <c r="AV5">
+        <v>22964.59496052168</v>
+      </c>
+      <c r="AW5">
+        <v>21908.25562992486</v>
+      </c>
+      <c r="AX5">
+        <v>20555.89690125989</v>
+      </c>
+      <c r="AY5">
+        <v>19022.04740323823</v>
+      </c>
+      <c r="AZ5">
+        <v>17431.1226215471</v>
+      </c>
+      <c r="BA5">
+        <v>15908.81166519713</v>
+      </c>
+      <c r="BB5">
+        <v>14573.51159180171</v>
+      </c>
+      <c r="BC5">
+        <v>13527.55783786223</v>
+      </c>
+      <c r="BD5">
+        <v>12848.84450895844</v>
+      </c>
+      <c r="BE5">
+        <v>12584.41118303936</v>
+      </c>
+      <c r="BF5">
+        <v>12747.780295115</v>
+      </c>
+      <c r="BG5">
+        <v>13320.86969231644</v>
+      </c>
+      <c r="BH5">
+        <v>14259.67100330878</v>
+      </c>
+      <c r="BI5">
+        <v>15501.61760773895</v>
+      </c>
+      <c r="BJ5">
+        <v>16972.47316467592</v>
+      </c>
+      <c r="BK5">
+        <v>18591.62396976836</v>
+      </c>
+      <c r="BL5">
+        <v>20276.02371814914</v>
+      </c>
+      <c r="BM5">
+        <v>21943.75059180173</v>
+      </c>
+      <c r="BN5">
+        <v>23517.86040774307</v>
+      </c>
+      <c r="BO5">
+        <v>24930.44129000181</v>
+      </c>
+      <c r="BP5">
+        <v>26126.25755434801</v>
+      </c>
+      <c r="BQ5">
+        <v>27065.45047118349</v>
+      </c>
+      <c r="BR5">
+        <v>27725.17240774194</v>
+      </c>
+      <c r="BS5">
+        <v>28100.30131964943</v>
+      </c>
+      <c r="BT5">
+        <v>28203.32476836066</v>
+      </c>
+      <c r="BU5">
+        <v>28063.27483294454</v>
+      </c>
+      <c r="BV5">
+        <v>27723.52503059206</v>
+      </c>
+      <c r="BW5">
+        <v>27238.44287279595</v>
+      </c>
+      <c r="BX5">
+        <v>26669.19997259787</v>
+      </c>
+      <c r="BY5">
+        <v>26079.2466785181</v>
+      </c>
+      <c r="BZ5">
+        <v>25529.93524618186</v>
+      </c>
+      <c r="CA5">
+        <v>25076.59666325901</v>
+      </c>
+      <c r="CB5">
+        <v>24765.21973934746</v>
+      </c>
+      <c r="CC5">
+        <v>24629.85485256798</v>
+      </c>
+      <c r="CD5">
+        <v>24690.91583937174</v>
+      </c>
+      <c r="CE5">
+        <v>24954.55248117385</v>
+      </c>
+      <c r="CF5">
+        <v>25413.14928377155</v>
+      </c>
+      <c r="CG5">
+        <v>26046.82772491338</v>
+      </c>
+      <c r="CH5">
+        <v>26825.69412024449</v>
+      </c>
+      <c r="CI5">
+        <v>27712.53848361938</v>
+      </c>
+      <c r="CJ5">
+        <v>28665.73165694362</v>
+      </c>
+      <c r="CK5">
+        <v>29642.13110250275</v>
+      </c>
+      <c r="CL5">
+        <v>30599.8457545301</v>
+      </c>
+      <c r="CM5">
+        <v>31500.72509099753</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>